--- a/Mifos Automation Excels/Client/2481-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2481-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -165,9 +170,6 @@
     <t>$ 5,000</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
@@ -198,23 +200,17 @@
     <t>$ 877.73</t>
   </si>
   <si>
-    <t>L4689</t>
-  </si>
-  <si>
-    <t>L4690</t>
-  </si>
-  <si>
-    <t>L4693</t>
-  </si>
-  <si>
-    <t>$ 82.63</t>
+    <t>L47</t>
+  </si>
+  <si>
+    <t>$ 543.84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +220,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -308,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -352,36 +356,49 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -430,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,9 +480,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,6 +532,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1491,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1706,7 @@
         <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6">
         <v>543.84</v>
@@ -1887,7 +1938,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>31</v>
@@ -1900,7 +1951,7 @@
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1914,7 +1965,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>31</v>
@@ -1923,11 +1974,11 @@
         <v>30</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1941,7 +1992,7 @@
         <v>42036</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>31</v>
@@ -1953,7 +2004,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="15"/>
     </row>
@@ -2133,7 +2184,7 @@
         <v>42064</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>31</v>
@@ -2146,7 +2197,7 @@
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2160,7 +2211,7 @@
         <v>42064</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>31</v>
@@ -2169,11 +2220,11 @@
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,7 +2238,7 @@
         <v>42064</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>31</v>
@@ -2199,7 +2250,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="18"/>
     </row>
@@ -2210,10 +2261,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,194 +2280,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>8460</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="6">
+        <v>123</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="23">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="7">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>8461</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="6">
+        <v>124</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="23">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="7">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>8462</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="26">
-        <v>42064</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="24"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>8463</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="26">
-        <v>42064</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>8471</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="29">
-        <v>42095</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>8472</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="29">
-        <v>42095</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/2481-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2481-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Acc_Repayment" sheetId="9" r:id="rId6"/>
     <sheet name="Acc_Disbursement1" sheetId="7" r:id="rId7"/>
     <sheet name="Acc_Repayment1" sheetId="6" r:id="rId8"/>
-    <sheet name="Acc_Upfront" sheetId="10" r:id="rId9"/>
+    <sheet name="Acc_Upfront" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -200,10 +200,10 @@
     <t>$ 877.73</t>
   </si>
   <si>
-    <t>L47</t>
-  </si>
-  <si>
-    <t>$ 543.84</t>
+    <t>L282</t>
+  </si>
+  <si>
+    <t>$ 543.84</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1543,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,22 +2264,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
@@ -2308,9 +2298,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -2335,9 +2325,9 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>

--- a/Mifos Automation Excels/Client/2481-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2481-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,12 +905,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -950,17 +951,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -986,8 +988,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1025,14 +1028,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7">
@@ -1057,9 +1061,10 @@
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1095,14 +1100,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>10.76</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1138,14 +1144,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1181,14 +1188,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1224,14 +1232,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1267,14 +1276,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1310,14 +1320,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1353,14 +1364,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1396,14 +1408,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1439,14 +1452,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1482,14 +1496,15 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>888.49</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1525,10 +1540,11 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>708.94</v>
       </c>
     </row>
@@ -2263,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
